--- a/Descargas/R15_7º Juzgado De Garantia De Santiago_Ingresos Causas Por Rol_2020-Noviembre.xlsx
+++ b/Descargas/R15_7º Juzgado De Garantia De Santiago_Ingresos Causas Por Rol_2020-Noviembre.xlsx
@@ -231,7 +231,7 @@
         </is>
       </c>
       <c r="B3" s="65">
-        <v>1310</v>
+        <v>1309</v>
       </c>
     </row>
   </sheetData>
